--- a/gun.xlsx
+++ b/gun.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E273"/>
+  <dimension ref="A1:E274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5080,6 +5080,23 @@
         <v>1249.5</v>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>45923.99930555555</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1598</v>
+      </c>
+      <c r="C274" t="n">
+        <v>522</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1997.5</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1249.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5091,7 +5108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6741,6 +6758,23 @@
         <v>342</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>45923.99930555555</v>
+      </c>
+      <c r="B97" t="n">
+        <v>449.95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1952</v>
+      </c>
+      <c r="D97" t="n">
+        <v>638.88</v>
+      </c>
+      <c r="E97" t="n">
+        <v>342</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6752,7 +6786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E273"/>
+  <dimension ref="A1:E274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11411,6 +11445,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>45923.99930555555</v>
+      </c>
+      <c r="B274" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="C274" t="n">
+        <v>331</v>
+      </c>
+      <c r="D274" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="E274" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11422,7 +11473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E273"/>
+  <dimension ref="A1:E274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16081,6 +16132,23 @@
         <v>11.9</v>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>45923.99930555555</v>
+      </c>
+      <c r="B274" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1284</v>
+      </c>
+      <c r="D274" t="n">
+        <v>27.58</v>
+      </c>
+      <c r="E274" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16092,7 +16160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E273"/>
+  <dimension ref="A1:E274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20751,6 +20819,23 @@
         <v>17</v>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>45923.99930555555</v>
+      </c>
+      <c r="B274" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="C274" t="n">
+        <v>327</v>
+      </c>
+      <c r="D274" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="E274" t="n">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20762,7 +20847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E273"/>
+  <dimension ref="A1:E274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25421,6 +25506,23 @@
         <v>34</v>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>45923.99930555555</v>
+      </c>
+      <c r="B274" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="C274" t="n">
+        <v>373</v>
+      </c>
+      <c r="D274" t="n">
+        <v>166</v>
+      </c>
+      <c r="E274" t="n">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
